--- a/const/抽奖.xlsx
+++ b/const/抽奖.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="21720" windowHeight="13620"/>
+    <workbookView xWindow="16160" yWindow="1900" windowWidth="20000" windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="奖券1" sheetId="4" r:id="rId1"/>
+    <sheet name="奖券2" sheetId="2" r:id="rId2"/>
+    <sheet name="奖券3" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,9 +22,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,6 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>几率3（最终）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,11 +76,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
@@ -73,14 +107,6 @@
     <t>egg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -90,7 +116,7 @@
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,11 +150,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,12 +185,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,9 +230,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,26 +239,39 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,49 +571,4497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C2:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="8">
+        <f>B2*E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="9">
+        <f>ROUND(G2*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="8">
+        <f>B3*E3</f>
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H27" si="0">ROUND(G3*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I3" s="10">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J7" si="1">H3+I3</f>
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="8">
+        <f>B4*E4</f>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I7" si="2">H3+I3</f>
+        <v>400001</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="1"/>
+        <v>600001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8">
+        <f>E5*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>600001</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>625001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8">
+        <f>E6*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>625001</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>650001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>650001</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>675001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8">
+        <f>E8*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I26" si="3">H7+I7</f>
+        <v>675001</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" ref="J8:J26" si="4">H8+I8</f>
+        <v>700001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F9" s="5">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8">
+        <f>E9*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>700001</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="4"/>
+        <v>725001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8">
+        <f>E10*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>725001</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="4"/>
+        <v>750001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="5">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8">
+        <f>E11*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>750001</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="4"/>
+        <v>775001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <f>E12*B5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>775001</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="4"/>
+        <v>800001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <f>E13*B13</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="3"/>
+        <v>800001</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="4"/>
+        <v>810001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f>E14*B13</f>
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>8889</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>810001</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="4"/>
+        <v>818890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <f>B13*E15</f>
+        <v>7.7777777777777784E-3</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>7778</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="3"/>
+        <v>818890</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="4"/>
+        <v>826668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <f>B13*E16</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>6667</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="3"/>
+        <v>826668</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="4"/>
+        <v>833335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <f>B13*E17</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>5556</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="3"/>
+        <v>833335</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="4"/>
+        <v>838891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <f>B13*E18</f>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>4444</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="3"/>
+        <v>838891</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="4"/>
+        <v>843335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f>B13*E19</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>3333</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="3"/>
+        <v>843335</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="4"/>
+        <v>846668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <f>B13*E20</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>2222</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="3"/>
+        <v>846668</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="4"/>
+        <v>848890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f>B13*E21</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="3"/>
+        <v>848890</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="4"/>
+        <v>850001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <f>B22*E22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="3"/>
+        <v>850001</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="4"/>
+        <v>875001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <f>E23*B22</f>
+        <v>2.5000000000000046E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="3"/>
+        <v>875001</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="4"/>
+        <v>900001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <f>E24*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="3"/>
+        <v>900001</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="4"/>
+        <v>925001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <f>E25*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="3"/>
+        <v>925001</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="4"/>
+        <v>950001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>E26*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="3"/>
+        <v>950001</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="4"/>
+        <v>975001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <f>E27*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27" si="5">H26+I26</f>
+        <v>975001</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" ref="J27" si="6">H27+I27</f>
+        <v>1000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="8">
+        <f>B2*E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="9">
+        <f>ROUND(G2*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="8">
+        <f>B3*E3</f>
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H27" si="0">ROUND(G3*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I3" s="10">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J27" si="1">H3+I3</f>
+        <v>400001</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="8">
+        <f>B4*E4</f>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I27" si="2">H3+I3</f>
+        <v>400001</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="1"/>
+        <v>600001</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8">
+        <f>E5*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>600001</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>621876</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="5">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8">
+        <f>E6*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>621876</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>643751</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5">
+        <v>60</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>643751</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>665626</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F8" s="5">
+        <v>60</v>
+      </c>
+      <c r="G8" s="8">
+        <f>E8*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>665626</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>687501</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8">
+        <f>E9*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>687501</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="1"/>
+        <v>709376</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F10" s="5">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8">
+        <f>E10*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>709376</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="1"/>
+        <v>731251</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="5">
+        <v>60</v>
+      </c>
+      <c r="G11" s="8">
+        <f>E11*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>731251</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>753126</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="5">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8">
+        <f>E12*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>753126</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>775001</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <f>E13*B13</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>775001</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="1"/>
+        <v>790001</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f>E14*B13</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>13333</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>790001</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="1"/>
+        <v>803334</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <f>B13*E15</f>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>11667</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>803334</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="1"/>
+        <v>815001</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <f>B13*E16</f>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>815001</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="1"/>
+        <v>825001</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <f>B13*E17</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>8333</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>825001</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="1"/>
+        <v>833334</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <f>B13*E18</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>6667</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>833334</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>840001</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f>B13*E19</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>840001</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="1"/>
+        <v>845001</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <f>B13*E20</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>3333</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>845001</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="1"/>
+        <v>848334</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f>B13*E21</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>1667</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>848334</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="1"/>
+        <v>850001</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <f>B22*E22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="2"/>
+        <v>850001</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="1"/>
+        <v>875001</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <f>E23*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>875001</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
+        <v>900001</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <f>E24*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="2"/>
+        <v>900001</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
+        <v>925001</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <f>E25*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="2"/>
+        <v>925001</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="1"/>
+        <v>950001</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>E26*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>950001</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="1"/>
+        <v>975001</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <f>E27*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="2"/>
+        <v>975001</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="1"/>
+        <v>1000001</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E22:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="8">
+        <f>B2*E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="9">
+        <f>ROUND(G2*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G3" s="8">
+        <f>B3*E3</f>
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H27" si="0">ROUND(G3*1000000,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="I3" s="10">
+        <f>H2+I2</f>
+        <v>200001</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J27" si="1">H3+I3</f>
+        <v>400001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="8">
+        <f>B4*E4</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I27" si="2">H3+I3</f>
+        <v>400001</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="1"/>
+        <v>575001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8">
+        <f>E5*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>575001</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>596876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8">
+        <f>E6*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>596876</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>618751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>618751</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>640626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8">
+        <f>E8*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>640626</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>662501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+      <c r="G9" s="8">
+        <f>E9*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>662501</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="1"/>
+        <v>684376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100</v>
+      </c>
+      <c r="G10" s="8">
+        <f>E10*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>684376</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="1"/>
+        <v>706251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100</v>
+      </c>
+      <c r="G11" s="8">
+        <f>E11*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>706251</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>728126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8">
+        <f>E12*B5</f>
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>21875</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>728126</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="1"/>
+        <v>750001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <f>E13*B13</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>750001</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="1"/>
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f>E14*B13</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>17778</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>770001</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="1"/>
+        <v>787779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <f>B13*E15</f>
+        <v>1.5555555555555557E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>15556</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>787779</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="1"/>
+        <v>803335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <f>B13*E16</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>13333</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>803335</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="1"/>
+        <v>816668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <f>B13*E17</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>11111</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>816668</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="1"/>
+        <v>827779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <f>B13*E18</f>
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>8889</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>827779</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="1"/>
+        <v>836668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f>B13*E19</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>6667</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>836668</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="1"/>
+        <v>843335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <f>B13*E20</f>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>4444</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>843335</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="1"/>
+        <v>847779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f>B13*E21</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>2222</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>847779</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="1"/>
+        <v>850001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <f>B22*E22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="2"/>
+        <v>850001</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="1"/>
+        <v>875001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <f>E23*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>875001</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
+        <v>900001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <f>E24*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="2"/>
+        <v>900001</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
+        <v>925001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <f>E25*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="2"/>
+        <v>925001</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="1"/>
+        <v>950001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>17</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>E26*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>950001</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="1"/>
+        <v>975001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <f>E27*B22</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="2"/>
+        <v>975001</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="1"/>
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -580,11 +5085,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="19">
         <v>0.2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>8</v>
+      <c r="C2" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -599,14 +5104,14 @@
         <f>B2*E2</f>
         <v>0.1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>G2*1000000</f>
         <v>100000</v>
       </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
         <f>H2+I2</f>
         <v>100001</v>
       </c>
@@ -632,10 +5137,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -649,17 +5152,17 @@
         <f>B2*E3</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H36" si="0">G3*1000000</f>
         <v>66666.666666666672</v>
       </c>
-      <c r="I3" s="11">
-        <f>ROUND(H2+I2,0)</f>
+      <c r="I3" s="10">
+        <f>H2+I2</f>
         <v>100001</v>
       </c>
-      <c r="J3" s="11">
-        <f>ROUND(H3+I3,0)</f>
-        <v>166668</v>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J36" si="1">H3+I3</f>
+        <v>166667.66666666669</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -683,10 +5186,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -700,17 +5201,17 @@
         <f>B2*E4</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>33333.333333333336</v>
       </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I36" si="1">ROUND(H3+I3,0)</f>
-        <v>166668</v>
-      </c>
-      <c r="J4" s="11">
-        <f t="shared" ref="J4:J36" si="2">ROUND(H4+I4,0)</f>
-        <v>200001</v>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I36" si="2">H3+I3</f>
+        <v>166667.66666666669</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>200001.00000000003</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -734,11 +5235,11 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <v>0.2</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
+      <c r="C5" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -753,16 +5254,16 @@
         <f>B5*E5</f>
         <v>0.1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>200001.00000000003</v>
+      </c>
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>200001</v>
-      </c>
-      <c r="J5" s="11">
-        <f t="shared" si="2"/>
         <v>300001</v>
       </c>
       <c r="K5" s="2"/>
@@ -787,10 +5288,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1">
         <v>2</v>
       </c>
@@ -804,17 +5303,17 @@
         <f>B5*E6</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>66666.666666666672</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>300001</v>
+      </c>
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>300001</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="2"/>
-        <v>366668</v>
+        <v>366667.66666666669</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -838,10 +5337,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -855,16 +5352,16 @@
         <f>B5*E7</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>33333.333333333336</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>366667.66666666669</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>366668</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="2"/>
         <v>400001</v>
       </c>
       <c r="K7" s="2"/>
@@ -889,11 +5386,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="19">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
+      <c r="C8" s="20" t="s">
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -908,16 +5405,16 @@
         <f>B8*E8</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>87500</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>400001</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>400001</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="2"/>
         <v>487501</v>
       </c>
       <c r="K8" s="1"/>
@@ -942,10 +5439,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -959,17 +5454,17 @@
         <f>B8*E9</f>
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>58333.333333333328</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>487501</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>487501</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="2"/>
-        <v>545834</v>
+        <v>545834.33333333337</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -993,10 +5488,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3">
         <v>3</v>
       </c>
@@ -1010,16 +5503,16 @@
         <f>B8*E10</f>
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>29166.666666666664</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>545834.33333333337</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>545834</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="2"/>
         <v>575001</v>
       </c>
       <c r="K10" s="1"/>
@@ -1044,11 +5537,11 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="19">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>11</v>
+      <c r="C11" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1063,16 +5556,16 @@
         <f>B11*E11</f>
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>575001</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>575001</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="2"/>
         <v>596876</v>
       </c>
       <c r="K11" s="1"/>
@@ -1097,10 +5590,8 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -1114,16 +5605,16 @@
         <f>B11*E12</f>
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>596876</v>
+      </c>
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>596876</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" si="2"/>
         <v>618751</v>
       </c>
       <c r="K12" s="1"/>
@@ -1148,10 +5639,8 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3">
         <v>3</v>
       </c>
@@ -1164,16 +5653,16 @@
       <c r="G13" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>618751</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>618751</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="2"/>
         <v>640626</v>
       </c>
       <c r="K13" s="1"/>
@@ -1198,10 +5687,8 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3">
         <v>4</v>
       </c>
@@ -1214,16 +5701,16 @@
       <c r="G14" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>640626</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
-        <v>640626</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="2"/>
         <v>662501</v>
       </c>
       <c r="K14" s="1"/>
@@ -1248,10 +5735,8 @@
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3">
         <v>5</v>
       </c>
@@ -1264,16 +5749,16 @@
       <c r="G15" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>662501</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>662501</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="2"/>
         <v>684376</v>
       </c>
       <c r="K15" s="1"/>
@@ -1298,10 +5783,8 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3">
         <v>6</v>
       </c>
@@ -1314,16 +5797,16 @@
       <c r="G16" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>684376</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>684376</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="2"/>
         <v>706251</v>
       </c>
       <c r="K16" s="1"/>
@@ -1348,10 +5831,8 @@
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="3">
         <v>7</v>
       </c>
@@ -1364,16 +5845,16 @@
       <c r="G17" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>706251</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
-        <v>706251</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="2"/>
         <v>728126</v>
       </c>
       <c r="K17" s="1"/>
@@ -1398,10 +5879,8 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="3">
         <v>8</v>
       </c>
@@ -1414,16 +5893,16 @@
       <c r="G18" s="8">
         <v>2.1874999999999999E-2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>21875</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>728126</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>728126</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="2"/>
         <v>750001</v>
       </c>
       <c r="K18" s="1"/>
@@ -1448,11 +5927,11 @@
       <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="19">
         <v>0.1</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>12</v>
+      <c r="C19" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1467,16 +5946,16 @@
         <f>B19*E19</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>20000.000000000004</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>750001</v>
+      </c>
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
-        <v>750001</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="2"/>
         <v>770001</v>
       </c>
       <c r="K19" s="1"/>
@@ -1501,10 +5980,8 @@
       <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="3">
         <v>2</v>
       </c>
@@ -1518,17 +5995,17 @@
         <f>E20*B19</f>
         <v>1.7777777777777778E-2</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
         <v>17777.777777777777</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>770001</v>
+      </c>
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
-        <v>770001</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="2"/>
-        <v>787779</v>
+        <v>787778.77777777775</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1552,10 +6029,8 @@
       <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="3">
         <v>3</v>
       </c>
@@ -1569,17 +6044,17 @@
         <f>B19*E21</f>
         <v>1.5555555555555557E-2</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>15555.555555555557</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>787778.77777777775</v>
+      </c>
+      <c r="J21" s="10">
         <f t="shared" si="1"/>
-        <v>787779</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="2"/>
-        <v>803335</v>
+        <v>803334.33333333326</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1603,10 +6078,8 @@
       <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="3">
         <v>4</v>
       </c>
@@ -1620,17 +6093,17 @@
         <f>B19*E22</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>13333.333333333334</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
+        <f t="shared" si="2"/>
+        <v>803334.33333333326</v>
+      </c>
+      <c r="J22" s="10">
         <f t="shared" si="1"/>
-        <v>803335</v>
-      </c>
-      <c r="J22" s="11">
-        <f t="shared" si="2"/>
-        <v>816668</v>
+        <v>816667.66666666663</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1654,10 +6127,8 @@
       <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3">
         <v>5</v>
       </c>
@@ -1671,17 +6142,17 @@
         <f>B19*E23</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="0"/>
         <v>11111.111111111111</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>816667.66666666663</v>
+      </c>
+      <c r="J23" s="10">
         <f t="shared" si="1"/>
-        <v>816668</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="2"/>
-        <v>827779</v>
+        <v>827778.77777777775</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1705,10 +6176,8 @@
       <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="3">
         <v>6</v>
       </c>
@@ -1722,17 +6191,17 @@
         <f>B19*E24</f>
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>8888.8888888888887</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
+        <f t="shared" si="2"/>
+        <v>827778.77777777775</v>
+      </c>
+      <c r="J24" s="10">
         <f t="shared" si="1"/>
-        <v>827779</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" si="2"/>
-        <v>836668</v>
+        <v>836667.66666666663</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1756,10 +6225,8 @@
       <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="3">
         <v>7</v>
       </c>
@@ -1773,17 +6240,17 @@
         <f>B19*E25</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="0"/>
         <v>6666.666666666667</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
+        <f t="shared" si="2"/>
+        <v>836667.66666666663</v>
+      </c>
+      <c r="J25" s="10">
         <f t="shared" si="1"/>
-        <v>836668</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="2"/>
-        <v>843335</v>
+        <v>843334.33333333326</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1807,10 +6274,8 @@
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="3">
         <v>8</v>
       </c>
@@ -1824,17 +6289,17 @@
         <f>B19*E26</f>
         <v>4.4444444444444444E-3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="0"/>
         <v>4444.4444444444443</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>843334.33333333326</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>843335</v>
-      </c>
-      <c r="J26" s="11">
-        <f>ROUND(H26+I26,0)</f>
-        <v>847779</v>
+        <v>847778.77777777775</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1858,10 +6323,8 @@
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="3">
         <v>9</v>
       </c>
@@ -1875,16 +6338,16 @@
         <f>B19*E27</f>
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="0"/>
         <v>2222.2222222222222</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
+        <f t="shared" si="2"/>
+        <v>847778.77777777775</v>
+      </c>
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>847779</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="2"/>
         <v>850001</v>
       </c>
       <c r="K27" s="1"/>
@@ -1909,11 +6372,11 @@
       <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="19">
         <v>0.15</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>13</v>
+      <c r="C28" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1928,17 +6391,17 @@
         <f>B28*E28</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
+        <f t="shared" si="2"/>
+        <v>850001</v>
+      </c>
+      <c r="J28" s="10">
         <f t="shared" si="1"/>
-        <v>850001</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="2"/>
-        <v>866668</v>
+        <v>866667.66666666663</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1962,10 +6425,8 @@
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="1">
         <v>2</v>
       </c>
@@ -1978,17 +6439,17 @@
       <c r="G29" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
+        <f t="shared" si="2"/>
+        <v>866667.66666666663</v>
+      </c>
+      <c r="J29" s="10">
         <f t="shared" si="1"/>
-        <v>866668</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="2"/>
-        <v>883335</v>
+        <v>883334.33333333326</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2012,10 +6473,8 @@
       <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1">
         <v>3</v>
       </c>
@@ -2028,17 +6487,17 @@
       <c r="G30" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
+        <f t="shared" si="2"/>
+        <v>883334.33333333326</v>
+      </c>
+      <c r="J30" s="10">
         <f t="shared" si="1"/>
-        <v>883335</v>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="2"/>
-        <v>900002</v>
+        <v>900000.99999999988</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2062,10 +6521,8 @@
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="1">
         <v>4</v>
       </c>
@@ -2078,17 +6535,17 @@
       <c r="G31" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
+        <f t="shared" si="2"/>
+        <v>900000.99999999988</v>
+      </c>
+      <c r="J31" s="10">
         <f t="shared" si="1"/>
-        <v>900002</v>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="2"/>
-        <v>916669</v>
+        <v>916667.66666666651</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2112,10 +6569,8 @@
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="1">
         <v>5</v>
       </c>
@@ -2128,17 +6583,17 @@
       <c r="G32" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
+        <f t="shared" si="2"/>
+        <v>916667.66666666651</v>
+      </c>
+      <c r="J32" s="10">
         <f t="shared" si="1"/>
-        <v>916669</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="2"/>
-        <v>933336</v>
+        <v>933334.33333333314</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2162,10 +6617,8 @@
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="1">
         <v>6</v>
       </c>
@@ -2178,17 +6631,17 @@
       <c r="G33" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
+        <f t="shared" si="2"/>
+        <v>933334.33333333314</v>
+      </c>
+      <c r="J33" s="10">
         <f t="shared" si="1"/>
-        <v>933336</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" si="2"/>
-        <v>950003</v>
+        <v>950000.99999999977</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2212,10 +6665,8 @@
       <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="1">
         <v>7</v>
       </c>
@@ -2228,17 +6679,17 @@
       <c r="G34" s="8">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666701</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
+        <f t="shared" si="2"/>
+        <v>950000.99999999977</v>
+      </c>
+      <c r="J34" s="10">
         <f t="shared" si="1"/>
-        <v>950003</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="2"/>
-        <v>966670</v>
+        <v>966667.66666666651</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2262,10 +6713,8 @@
       <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="1">
         <v>8</v>
       </c>
@@ -2278,17 +6727,17 @@
       <c r="G35" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
+        <f t="shared" si="2"/>
+        <v>966667.66666666651</v>
+      </c>
+      <c r="J35" s="10">
         <f t="shared" si="1"/>
-        <v>966670</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="2"/>
-        <v>983337</v>
+        <v>983334.33333333314</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2312,10 +6761,8 @@
       <c r="A36" s="1">
         <v>27</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -2328,17 +6775,17 @@
       <c r="G36" s="8">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <f t="shared" si="0"/>
         <v>16666.666666666668</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
+        <f t="shared" si="2"/>
+        <v>983334.33333333314</v>
+      </c>
+      <c r="J36" s="10">
         <f t="shared" si="1"/>
-        <v>983337</v>
-      </c>
-      <c r="J36" s="11">
-        <f t="shared" si="2"/>
-        <v>1000004</v>
+        <v>1000000.9999999998</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2364,9 +6811,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2391,9 +6838,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2418,9 +6865,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2445,9 +6892,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2472,9 +6919,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2499,9 +6946,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2526,9 +6973,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2553,9 +7000,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2580,9 +7027,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2607,9 +7054,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2634,9 +7081,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2661,9 +7108,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2688,9 +7135,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2715,9 +7162,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2742,9 +7189,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2769,9 +7216,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2796,9 +7243,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2823,9 +7270,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -2850,9 +7297,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -2877,9 +7324,9 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2904,9 +7351,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -2931,9 +7378,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -2958,9 +7405,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -2985,9 +7432,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3012,9 +7459,9 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3039,9 +7486,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3066,9 +7513,9 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3093,9 +7540,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3120,9 +7567,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3147,9 +7594,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3174,9 +7621,9 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3201,9 +7648,9 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3228,9 +7675,9 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3255,9 +7702,9 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3282,9 +7729,9 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3309,9 +7756,9 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3336,9 +7783,9 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3363,9 +7810,9 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3390,9 +7837,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3417,9 +7864,9 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3444,9 +7891,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3471,9 +7918,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -3498,9 +7945,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -3525,9 +7972,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -3552,9 +7999,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -3579,9 +8026,9 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -3606,9 +8053,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -3633,9 +8080,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -3660,9 +8107,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -3687,9 +8134,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -3714,9 +8161,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3741,9 +8188,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -3768,9 +8215,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -3795,9 +8242,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -3822,9 +8269,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3849,9 +8296,9 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3876,9 +8323,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3903,9 +8350,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -3930,9 +8377,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -3957,9 +8404,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -3984,9 +8431,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4011,9 +8458,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -4038,9 +8485,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -4065,9 +8512,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -4092,9 +8539,9 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -4119,9 +8566,9 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -4146,9 +8593,9 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -4173,9 +8620,9 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -4200,9 +8647,9 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -4227,9 +8674,9 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -4254,9 +8701,9 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -4281,9 +8728,9 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -4308,9 +8755,9 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -4335,9 +8782,9 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -4362,9 +8809,9 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -4389,9 +8836,9 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -4416,9 +8863,9 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -4443,9 +8890,9 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -4470,9 +8917,9 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -4497,9 +8944,9 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -4524,9 +8971,9 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -4551,9 +8998,9 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -4578,9 +9025,9 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -4605,9 +9052,9 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -4632,9 +9079,9 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -4659,9 +9106,9 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -4686,9 +9133,9 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -4713,9 +9160,9 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -4740,9 +9187,9 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -4767,9 +9214,9 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -4794,9 +9241,9 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -4821,9 +9268,9 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -4848,9 +9295,9 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -4875,9 +9322,9 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -4902,9 +9349,9 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -4929,9 +9376,9 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -4956,9 +9403,9 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -4983,9 +9430,9 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -5010,9 +9457,9 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -5037,9 +9484,9 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -5064,9 +9511,9 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -5091,9 +9538,9 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -5118,9 +9565,9 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="17"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -5145,9 +9592,9 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -5172,9 +9619,9 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -5199,9 +9646,9 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -5226,9 +9673,9 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -5253,9 +9700,9 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -5280,9 +9727,9 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -5307,9 +9754,9 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -5334,9 +9781,9 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -5361,9 +9808,9 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -5388,9 +9835,9 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -5415,9 +9862,9 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -5479,13 +9926,19 @@
       <c r="D159" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B36"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5496,1808 +9949,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K200"/>
-  <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="G203" sqref="A1:G203"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/const/抽奖.xlsx
+++ b/const/抽奖.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="1900" windowWidth="20000" windowHeight="17680" activeTab="1"/>
+    <workbookView xWindow="-600" yWindow="105" windowWidth="19320" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="奖券1" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="奖券3" sheetId="3" r:id="rId3"/>
     <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
   <si>
     <t>黄金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
     <t>egg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>reward_cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -185,8 +189,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -267,12 +277,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,26 +583,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C2:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -619,8 +632,11 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -637,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G2" s="8">
         <f>B2*E2</f>
@@ -654,8 +670,11 @@
         <f>H2+I2</f>
         <v>200001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -672,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G3" s="8">
         <f>B3*E3</f>
@@ -690,8 +709,11 @@
         <f t="shared" ref="J3:J7" si="1">H3+I3</f>
         <v>400001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -708,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G4" s="8">
         <f>B4*E4</f>
@@ -726,8 +748,11 @@
         <f t="shared" si="1"/>
         <v>600001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -762,8 +787,11 @@
         <f t="shared" si="1"/>
         <v>625001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -796,8 +824,11 @@
         <f t="shared" si="1"/>
         <v>650001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -830,8 +861,11 @@
         <f t="shared" si="1"/>
         <v>675001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -864,8 +898,11 @@
         <f t="shared" ref="J8:J26" si="4">H8+I8</f>
         <v>700001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -898,8 +935,11 @@
         <f t="shared" si="4"/>
         <v>725001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -932,8 +972,11 @@
         <f t="shared" si="4"/>
         <v>750001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -966,8 +1009,11 @@
         <f t="shared" si="4"/>
         <v>775001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1000,8 +1046,11 @@
         <f t="shared" si="4"/>
         <v>800001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1036,8 +1085,11 @@
         <f t="shared" si="4"/>
         <v>810001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1070,8 +1122,11 @@
         <f t="shared" si="4"/>
         <v>818890</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1104,8 +1159,11 @@
         <f t="shared" si="4"/>
         <v>826668</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1138,8 +1196,11 @@
         <f t="shared" si="4"/>
         <v>833335</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1172,8 +1233,11 @@
         <f t="shared" si="4"/>
         <v>838891</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1206,8 +1270,11 @@
         <f t="shared" si="4"/>
         <v>843335</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1240,8 +1307,11 @@
         <f t="shared" si="4"/>
         <v>846668</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1274,8 +1344,11 @@
         <f t="shared" si="4"/>
         <v>848890</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1308,8 +1381,11 @@
         <f t="shared" si="4"/>
         <v>850001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1344,8 +1420,11 @@
         <f t="shared" si="4"/>
         <v>875001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1378,8 +1457,11 @@
         <f t="shared" si="4"/>
         <v>900001</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1412,8 +1494,11 @@
         <f t="shared" si="4"/>
         <v>925001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1446,8 +1531,11 @@
         <f t="shared" si="4"/>
         <v>950001</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1480,8 +1568,11 @@
         <f t="shared" si="4"/>
         <v>975001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1513,6 +1604,9 @@
       <c r="J27" s="16">
         <f t="shared" ref="J27" si="6">H27+I27</f>
         <v>1000001</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1536,24 +1630,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -1582,9 +1677,11 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1601,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>2000</v>
+        <v>4888</v>
       </c>
       <c r="G2" s="8">
         <f>B2*E2</f>
@@ -1618,9 +1715,11 @@
         <f>H2+I2</f>
         <v>200001</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1637,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>2000</v>
+        <v>4888</v>
       </c>
       <c r="G3" s="8">
         <f>B3*E3</f>
@@ -1655,9 +1754,11 @@
         <f t="shared" ref="J3:J27" si="1">H3+I3</f>
         <v>400001</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1674,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>2000</v>
+        <v>4888</v>
       </c>
       <c r="G4" s="8">
         <f>B4*E4</f>
@@ -1692,9 +1793,11 @@
         <f t="shared" si="1"/>
         <v>600001</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1729,9 +1832,11 @@
         <f t="shared" si="1"/>
         <v>621876</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1764,9 +1869,11 @@
         <f t="shared" si="1"/>
         <v>643751</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1799,9 +1906,11 @@
         <f t="shared" si="1"/>
         <v>665626</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1834,9 +1943,11 @@
         <f t="shared" si="1"/>
         <v>687501</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1869,9 +1980,11 @@
         <f t="shared" si="1"/>
         <v>709376</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1904,9 +2017,11 @@
         <f t="shared" si="1"/>
         <v>731251</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1939,9 +2054,11 @@
         <f t="shared" si="1"/>
         <v>753126</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1974,9 +2091,11 @@
         <f t="shared" si="1"/>
         <v>775001</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2011,9 +2130,11 @@
         <f t="shared" si="1"/>
         <v>790001</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2046,9 +2167,11 @@
         <f t="shared" si="1"/>
         <v>803334</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2081,9 +2204,11 @@
         <f t="shared" si="1"/>
         <v>815001</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2116,9 +2241,11 @@
         <f t="shared" si="1"/>
         <v>825001</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2151,9 +2278,11 @@
         <f t="shared" si="1"/>
         <v>833334</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2186,9 +2315,11 @@
         <f t="shared" si="1"/>
         <v>840001</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2221,9 +2352,11 @@
         <f t="shared" si="1"/>
         <v>845001</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2256,9 +2389,11 @@
         <f t="shared" si="1"/>
         <v>848334</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2291,9 +2426,11 @@
         <f t="shared" si="1"/>
         <v>850001</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2328,9 +2465,11 @@
         <f t="shared" si="1"/>
         <v>875001</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2363,9 +2502,11 @@
         <f t="shared" si="1"/>
         <v>900001</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2398,9 +2539,11 @@
         <f t="shared" si="1"/>
         <v>925001</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2433,9 +2576,11 @@
         <f t="shared" si="1"/>
         <v>950001</v>
       </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2468,9 +2613,11 @@
         <f t="shared" si="1"/>
         <v>975001</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2503,9 +2650,11 @@
         <f t="shared" si="1"/>
         <v>1000001</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="17"/>
       <c r="C28" s="14"/>
@@ -2518,7 +2667,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="17"/>
       <c r="C29" s="14"/>
@@ -2531,7 +2680,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
       <c r="C30" s="14"/>
@@ -2544,7 +2693,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="17"/>
       <c r="C31" s="14"/>
@@ -2557,7 +2706,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="17"/>
       <c r="C32" s="14"/>
@@ -2570,7 +2719,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="17"/>
       <c r="C33" s="14"/>
@@ -2583,7 +2732,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="17"/>
       <c r="C34" s="14"/>
@@ -2595,7 +2744,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="17"/>
       <c r="C35" s="14"/>
@@ -2607,7 +2756,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="17"/>
       <c r="C36" s="14"/>
@@ -2619,7 +2768,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2627,7 +2776,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2635,7 +2784,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2643,7 +2792,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2651,7 +2800,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2659,7 +2808,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2667,7 +2816,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2675,7 +2824,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2683,7 +2832,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2691,7 +2840,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2699,7 +2848,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2707,7 +2856,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2715,7 +2864,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2723,7 +2872,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2731,7 +2880,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2739,7 +2888,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2747,7 +2896,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2755,7 +2904,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2763,7 +2912,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2771,7 +2920,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2779,7 +2928,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2787,7 +2936,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2795,7 +2944,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2803,7 +2952,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2811,7 +2960,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2819,7 +2968,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2827,7 +2976,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2835,7 +2984,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2843,7 +2992,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2851,7 +3000,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2859,7 +3008,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2867,7 +3016,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2875,7 +3024,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2883,7 +3032,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2891,7 +3040,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2899,7 +3048,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2907,7 +3056,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2915,7 +3064,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2923,7 +3072,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2931,7 +3080,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2939,7 +3088,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2947,7 +3096,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2955,7 +3104,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2963,7 +3112,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2971,7 +3120,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2979,7 +3128,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2987,7 +3136,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2995,7 +3144,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3003,7 +3152,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3011,7 +3160,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3019,7 +3168,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3027,7 +3176,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3035,7 +3184,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3043,7 +3192,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3051,7 +3200,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3059,7 +3208,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3067,7 +3216,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3075,7 +3224,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3083,7 +3232,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3091,7 +3240,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3099,7 +3248,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3107,7 +3256,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3115,7 +3264,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3123,7 +3272,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3131,7 +3280,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3139,7 +3288,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3147,7 +3296,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3155,7 +3304,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3163,7 +3312,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3171,7 +3320,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3179,7 +3328,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3187,7 +3336,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3195,7 +3344,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3203,7 +3352,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3211,7 +3360,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3219,7 +3368,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3227,7 +3376,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3235,7 +3384,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3243,7 +3392,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3251,7 +3400,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3259,7 +3408,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3267,7 +3416,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3275,7 +3424,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3283,7 +3432,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3291,7 +3440,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3299,7 +3448,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3307,7 +3456,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3315,7 +3464,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3323,7 +3472,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3331,7 +3480,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3339,7 +3488,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3347,7 +3496,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3355,7 +3504,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3363,7 +3512,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3371,7 +3520,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3379,7 +3528,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3387,7 +3536,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3395,7 +3544,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3403,7 +3552,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3411,7 +3560,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3419,7 +3568,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3427,7 +3576,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3435,7 +3584,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3443,7 +3592,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3451,7 +3600,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3459,7 +3608,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3467,7 +3616,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3475,7 +3624,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3483,7 +3632,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3491,7 +3640,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3499,7 +3648,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3507,7 +3656,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3515,7 +3664,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3523,7 +3672,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3531,7 +3680,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3539,7 +3688,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3547,7 +3696,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3555,7 +3704,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3563,7 +3712,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3571,7 +3720,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3579,7 +3728,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3587,7 +3736,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3595,7 +3744,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3603,7 +3752,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3611,7 +3760,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3619,7 +3768,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3627,7 +3776,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3635,7 +3784,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3643,7 +3792,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3651,7 +3800,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3659,7 +3808,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3667,7 +3816,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3675,7 +3824,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3683,7 +3832,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3691,7 +3840,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3699,7 +3848,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3707,7 +3856,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3715,7 +3864,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3723,7 +3872,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3731,7 +3880,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3739,7 +3888,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3747,7 +3896,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3755,7 +3904,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3763,7 +3912,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3771,7 +3920,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3779,7 +3928,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3787,7 +3936,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3795,7 +3944,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3803,7 +3952,7 @@
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3811,7 +3960,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3819,7 +3968,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3827,7 +3976,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3835,7 +3984,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3843,7 +3992,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3851,7 +4000,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3859,7 +4008,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3867,7 +4016,7 @@
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3875,7 +4024,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3883,7 +4032,7 @@
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3891,7 +4040,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3899,7 +4048,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3907,7 +4056,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3915,7 +4064,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3923,7 +4072,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3949,26 +4098,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E22:E27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -3997,8 +4147,11 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4015,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>3000</v>
+        <v>8888</v>
       </c>
       <c r="G2" s="8">
         <f>B2*E2</f>
@@ -4032,8 +4185,11 @@
         <f>H2+I2</f>
         <v>200001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4050,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>3000</v>
+        <v>8888</v>
       </c>
       <c r="G3" s="8">
         <f>B3*E3</f>
@@ -4068,8 +4224,11 @@
         <f t="shared" ref="J3:J27" si="1">H3+I3</f>
         <v>400001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4086,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>3000</v>
+        <v>8888</v>
       </c>
       <c r="G4" s="8">
         <f>B4*E4</f>
@@ -4104,8 +4263,11 @@
         <f t="shared" si="1"/>
         <v>575001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4140,8 +4302,11 @@
         <f t="shared" si="1"/>
         <v>596876</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4174,8 +4339,11 @@
         <f t="shared" si="1"/>
         <v>618751</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4208,8 +4376,11 @@
         <f t="shared" si="1"/>
         <v>640626</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4242,8 +4413,11 @@
         <f t="shared" si="1"/>
         <v>662501</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4276,8 +4450,11 @@
         <f t="shared" si="1"/>
         <v>684376</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4310,8 +4487,11 @@
         <f t="shared" si="1"/>
         <v>706251</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4344,8 +4524,11 @@
         <f t="shared" si="1"/>
         <v>728126</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4378,8 +4561,11 @@
         <f t="shared" si="1"/>
         <v>750001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4414,8 +4600,11 @@
         <f t="shared" si="1"/>
         <v>770001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4448,8 +4637,11 @@
         <f t="shared" si="1"/>
         <v>787779</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4482,8 +4674,11 @@
         <f t="shared" si="1"/>
         <v>803335</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4516,8 +4711,11 @@
         <f t="shared" si="1"/>
         <v>816668</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4550,8 +4748,11 @@
         <f t="shared" si="1"/>
         <v>827779</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4584,8 +4785,11 @@
         <f t="shared" si="1"/>
         <v>836668</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4618,8 +4822,11 @@
         <f t="shared" si="1"/>
         <v>843335</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4652,8 +4859,11 @@
         <f t="shared" si="1"/>
         <v>847779</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4686,8 +4896,11 @@
         <f t="shared" si="1"/>
         <v>850001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4722,8 +4935,11 @@
         <f t="shared" si="1"/>
         <v>875001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4756,8 +4972,11 @@
         <f t="shared" si="1"/>
         <v>900001</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4790,8 +5009,11 @@
         <f t="shared" si="1"/>
         <v>925001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4824,8 +5046,11 @@
         <f t="shared" si="1"/>
         <v>950001</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4858,8 +5083,11 @@
         <f t="shared" si="1"/>
         <v>975001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4892,8 +5120,11 @@
         <f t="shared" si="1"/>
         <v>1000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="17"/>
       <c r="C28" s="14"/>
@@ -4905,7 +5136,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="17"/>
       <c r="C29" s="14"/>
@@ -4917,7 +5148,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
       <c r="C30" s="14"/>
@@ -4929,7 +5160,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="17"/>
       <c r="C31" s="14"/>
@@ -4941,7 +5172,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="17"/>
       <c r="C32" s="14"/>
@@ -4953,7 +5184,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="17"/>
       <c r="C33" s="14"/>
@@ -4965,7 +5196,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="17"/>
       <c r="C34" s="14"/>
@@ -4977,7 +5208,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="17"/>
       <c r="C35" s="14"/>
@@ -4989,7 +5220,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="17"/>
       <c r="C36" s="14"/>
@@ -5025,16 +5256,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5081,7 +5312,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5133,7 +5364,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5182,7 +5413,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5231,7 +5462,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5284,7 +5515,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5333,7 +5564,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5382,7 +5613,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5435,7 +5666,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5484,7 +5715,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5533,7 +5764,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5586,7 +5817,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5635,7 +5866,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5683,7 +5914,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -5731,7 +5962,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -5779,7 +6010,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -5827,7 +6058,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -5875,7 +6106,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -5923,7 +6154,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -5976,7 +6207,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -6025,7 +6256,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -6074,7 +6305,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -6123,7 +6354,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>14</v>
       </c>
@@ -6172,7 +6403,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -6221,7 +6452,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>16</v>
       </c>
@@ -6270,7 +6501,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -6319,7 +6550,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>18</v>
       </c>
@@ -6368,7 +6599,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -6421,7 +6652,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>20</v>
       </c>
@@ -6469,7 +6700,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>21</v>
       </c>
@@ -6517,7 +6748,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -6565,7 +6796,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -6613,7 +6844,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>24</v>
       </c>
@@ -6661,7 +6892,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -6709,7 +6940,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>26</v>
       </c>
@@ -6757,7 +6988,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -6805,7 +7036,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6832,7 +7063,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6859,7 +7090,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6886,7 +7117,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6913,7 +7144,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6940,7 +7171,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6967,7 +7198,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6994,7 +7225,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7021,7 +7252,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7048,7 +7279,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7075,7 +7306,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -7102,7 +7333,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -7129,7 +7360,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="3:27">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7156,7 +7387,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="3:27">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -7183,7 +7414,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="3:27">
+    <row r="51" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -7210,7 +7441,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="3:27">
+    <row r="52" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -7237,7 +7468,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="3:27">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -7264,7 +7495,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="3:27">
+    <row r="54" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -7291,7 +7522,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="3:27">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -7318,7 +7549,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="3:27">
+    <row r="56" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -7345,7 +7576,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="3:27">
+    <row r="57" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -7372,7 +7603,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="3:27">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -7399,7 +7630,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="3:27">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -7426,7 +7657,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="3:27">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -7453,7 +7684,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="3:27">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -7480,7 +7711,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="3:27">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -7507,7 +7738,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="3:27">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -7534,7 +7765,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="3:27">
+    <row r="64" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -7561,7 +7792,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="3:27">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -7588,7 +7819,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="3:27">
+    <row r="66" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -7615,7 +7846,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="3:27">
+    <row r="67" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -7642,7 +7873,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="3:27">
+    <row r="68" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -7669,7 +7900,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="3:27">
+    <row r="69" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -7696,7 +7927,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="3:27">
+    <row r="70" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -7723,7 +7954,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="3:27">
+    <row r="71" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -7750,7 +7981,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="3:27">
+    <row r="72" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -7777,7 +8008,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="3:27">
+    <row r="73" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -7804,7 +8035,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="3:27">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -7831,7 +8062,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="3:27">
+    <row r="75" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -7858,7 +8089,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="3:27">
+    <row r="76" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -7885,7 +8116,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="3:27">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -7912,7 +8143,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="3:27">
+    <row r="78" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -7939,7 +8170,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="3:27">
+    <row r="79" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -7966,7 +8197,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="3:27">
+    <row r="80" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -7993,7 +8224,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="3:27">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -8020,7 +8251,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="3:27">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -8047,7 +8278,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="3:27">
+    <row r="83" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -8074,7 +8305,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="3:27">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -8101,7 +8332,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="3:27">
+    <row r="85" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -8128,7 +8359,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="3:27">
+    <row r="86" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -8155,7 +8386,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="3:27">
+    <row r="87" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -8182,7 +8413,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="3:27">
+    <row r="88" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -8209,7 +8440,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="3:27">
+    <row r="89" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -8236,7 +8467,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="3:27">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -8263,7 +8494,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="3:27">
+    <row r="91" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -8290,7 +8521,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="3:27">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -8317,7 +8548,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="3:27">
+    <row r="93" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -8344,7 +8575,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="3:27">
+    <row r="94" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -8371,7 +8602,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="3:27">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -8398,7 +8629,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="3:27">
+    <row r="96" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -8425,7 +8656,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="3:27">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -8452,7 +8683,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="3:27">
+    <row r="98" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -8479,7 +8710,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="3:27">
+    <row r="99" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -8506,7 +8737,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="3:27">
+    <row r="100" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -8533,7 +8764,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="3:27">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -8560,7 +8791,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="3:27">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -8587,7 +8818,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="3:27">
+    <row r="103" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -8614,7 +8845,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="3:27">
+    <row r="104" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -8641,7 +8872,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="3:27">
+    <row r="105" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -8668,7 +8899,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="3:27">
+    <row r="106" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -8695,7 +8926,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="3:27">
+    <row r="107" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -8722,7 +8953,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="3:27">
+    <row r="108" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -8749,7 +8980,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="3:27">
+    <row r="109" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -8776,7 +9007,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="3:27">
+    <row r="110" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -8803,7 +9034,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="3:27">
+    <row r="111" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -8830,7 +9061,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="3:27">
+    <row r="112" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -8857,7 +9088,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="3:27">
+    <row r="113" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -8884,7 +9115,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="3:27">
+    <row r="114" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -8911,7 +9142,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="3:27">
+    <row r="115" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -8938,7 +9169,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="3:27">
+    <row r="116" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -8965,7 +9196,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="3:27">
+    <row r="117" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -8992,7 +9223,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="3:27">
+    <row r="118" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -9019,7 +9250,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="3:27">
+    <row r="119" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -9046,7 +9277,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="3:27">
+    <row r="120" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -9073,7 +9304,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="3:27">
+    <row r="121" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -9100,7 +9331,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="3:27">
+    <row r="122" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -9127,7 +9358,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="3:27">
+    <row r="123" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -9154,7 +9385,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="3:27">
+    <row r="124" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -9181,7 +9412,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="3:27">
+    <row r="125" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -9208,7 +9439,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="3:27">
+    <row r="126" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -9235,7 +9466,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="3:27">
+    <row r="127" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -9262,7 +9493,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="3:27">
+    <row r="128" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -9289,7 +9520,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="3:27">
+    <row r="129" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -9316,7 +9547,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="3:27">
+    <row r="130" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -9343,7 +9574,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="3:27">
+    <row r="131" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -9370,7 +9601,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="3:27">
+    <row r="132" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -9397,7 +9628,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="3:27">
+    <row r="133" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -9424,7 +9655,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="3:27">
+    <row r="134" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -9451,7 +9682,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="3:27">
+    <row r="135" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -9478,7 +9709,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="3:27">
+    <row r="136" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -9505,7 +9736,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="3:27">
+    <row r="137" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -9532,7 +9763,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="3:27">
+    <row r="138" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -9559,7 +9790,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="3:27">
+    <row r="139" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -9586,7 +9817,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="3:27">
+    <row r="140" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -9613,7 +9844,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="3:27">
+    <row r="141" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -9640,7 +9871,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="3:27">
+    <row r="142" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -9667,7 +9898,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="3:27">
+    <row r="143" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -9694,7 +9925,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="3:27">
+    <row r="144" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -9721,7 +9952,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="3:27">
+    <row r="145" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -9748,7 +9979,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="3:27">
+    <row r="146" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -9775,7 +10006,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="3:27">
+    <row r="147" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -9802,7 +10033,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="3:27">
+    <row r="148" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -9829,7 +10060,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="3:27">
+    <row r="149" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -9856,7 +10087,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="3:27">
+    <row r="150" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -9883,45 +10114,45 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="3:27">
+    <row r="151" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="3:27">
+    <row r="152" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="3:27">
+    <row r="153" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="3:27">
+    <row r="154" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="3:27">
+    <row r="155" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="3:27">
+    <row r="156" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="3:27">
+    <row r="157" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="3:27">
+    <row r="158" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="3:27">
+    <row r="159" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
